--- a/Plotting/Kerbalism Planning.xlsx
+++ b/Plotting/Kerbalism Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkKerbalism\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE6A7B2-4B93-484D-AA90-1EEBAEC6128C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4905C4-7CE8-4FB8-B08A-033E0C602EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="636" windowWidth="14364" windowHeight="11316" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Experiments" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>Short-Term Experiment</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>Upgrade bringing all pre Tier 9 drives up to Tier 9 capacities</t>
-  </si>
-  <si>
-    <t>512 (iirc not needed as probes end at 9)</t>
   </si>
   <si>
     <t>Long-Term Magnetic Field Analysis</t>
@@ -1098,7 +1095,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1391,182 +1388,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702215D1-1EDD-4B9D-9D77-E3E03503AAF6}">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2">
+        <f>C2/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1</v>
       </c>
-      <c r="G2">
-        <f>F2/60</f>
+      <c r="H2">
+        <f>G2/60</f>
         <v>1.6666666666666668E-3</v>
       </c>
-      <c r="H2">
-        <f>G2*3600</f>
+      <c r="I2">
+        <f>H2*3600</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">C3/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="s">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G5" si="0">F3/60</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="1">G3/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" si="1">G3*3600</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="2">H3*3600</f>
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="24">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>102</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>104</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>100</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11">
+        <v>512</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>96</v>
       </c>
